--- a/build_model/input/RIBOSOME_mitochondria.xlsx
+++ b/build_model/input/RIBOSOME_mitochondria.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="235">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -62,6 +62,9 @@
     <t xml:space="preserve">LSU</t>
   </si>
   <si>
+    <t xml:space="preserve">Ribosome protein MW</t>
+  </si>
+  <si>
     <t xml:space="preserve">YDR116C</t>
   </si>
   <si>
@@ -69,6 +72,9 @@
   </si>
   <si>
     <t xml:space="preserve">uL1m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ribosome RNA MW</t>
   </si>
   <si>
     <t xml:space="preserve">YEL050C</t>
@@ -836,13 +842,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H77"/>
+  <dimension ref="A1:I77"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="12.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.11"/>
@@ -881,10 +887,6 @@
       <c r="F2" s="2" t="n">
         <v>583.722835665</v>
       </c>
-      <c r="H2" s="0" t="n">
-        <f aca="false">SUM(F2:F77)</f>
-        <v>3647.273703108</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
@@ -899,1263 +901,1281 @@
       <c r="F3" s="2" t="n">
         <v>1056.615417443</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <f aca="false">SUM(F4:F77)</f>
+        <v>1992.66783</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>32.18766</v>
+        <v>31.28287</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <f aca="false">SUM(F2:F3)</f>
+        <v>1640.338253108</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>45.7717</v>
+        <v>44.20875</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <f aca="false">I3+I4</f>
+        <v>3633.006083108</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>32.01693</v>
+        <v>30.06432</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>32.93776</v>
+        <v>32.24637</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>33.89172</v>
+        <v>33.38782</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="3" t="n">
-        <v>25.47128</v>
+        <v>24.09772</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="3" t="n">
-        <v>16.79055</v>
+        <v>16.40666</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>11</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>29.90511</v>
+        <v>28.75878</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>18.52629</v>
+        <v>16.82078</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="3" t="n">
-        <v>22.04072</v>
+        <v>20.82989</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>11</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>19.33188</v>
+        <v>18.62435</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>11</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v>16.20329</v>
+        <v>15.03854</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>37.51102</v>
+        <v>36.68632</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>11</v>
       </c>
       <c r="F17" s="3" t="n">
-        <v>27.34299</v>
+        <v>26.75878</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>11</v>
       </c>
       <c r="F18" s="3" t="n">
-        <v>19.45429</v>
+        <v>19.56267</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>18.17791</v>
+        <v>18.54938</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="3" t="n">
-        <v>35.2905</v>
+        <v>35.21116</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>11</v>
       </c>
       <c r="F21" s="3" t="n">
-        <v>30.33034</v>
+        <v>30.82096</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>11</v>
       </c>
       <c r="F22" s="3" t="n">
-        <v>35.0653</v>
+        <v>34.04077</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>11</v>
       </c>
       <c r="F23" s="3" t="n">
-        <v>42.2998</v>
+        <v>43.60531</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>11</v>
       </c>
       <c r="F24" s="3" t="n">
-        <v>30.0407</v>
+        <v>30.31901</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>11</v>
       </c>
       <c r="F25" s="3" t="n">
-        <v>36.31037</v>
+        <v>37.26563</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>11</v>
       </c>
       <c r="F26" s="3" t="n">
-        <v>10.30704</v>
+        <v>9.60822</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>11</v>
       </c>
       <c r="F27" s="3" t="n">
-        <v>20.27381</v>
+        <v>20.2596</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>11</v>
       </c>
       <c r="F28" s="3" t="n">
-        <v>21.95294</v>
+        <v>21.61985</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>11</v>
       </c>
       <c r="F29" s="3" t="n">
-        <v>8.33591</v>
+        <v>8.03961</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D30" s="0" t="s">
         <v>11</v>
       </c>
       <c r="F30" s="3" t="n">
-        <v>11.82571</v>
+        <v>12.14029</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D31" s="0" t="s">
         <v>11</v>
       </c>
       <c r="F31" s="3" t="n">
-        <v>11.06785</v>
+        <v>10.79093</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D32" s="0" t="s">
         <v>11</v>
       </c>
       <c r="F32" s="3" t="n">
-        <v>42.40241</v>
+        <v>43.18679</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D33" s="0" t="s">
         <v>11</v>
       </c>
       <c r="F33" s="3" t="n">
-        <v>17.18985</v>
+        <v>17.4872</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D34" s="0" t="s">
         <v>11</v>
       </c>
       <c r="F34" s="3" t="n">
-        <v>17.48199</v>
+        <v>16.63695</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D35" s="0" t="s">
         <v>11</v>
       </c>
       <c r="F35" s="3" t="n">
-        <v>16.50972</v>
+        <v>16.25959</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D36" s="0" t="s">
         <v>11</v>
       </c>
       <c r="F36" s="3" t="n">
-        <v>44.59851</v>
+        <v>44.38655</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D37" s="0" t="s">
         <v>11</v>
       </c>
       <c r="F37" s="3" t="n">
-        <v>32.34025</v>
+        <v>32.48047</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D38" s="0" t="s">
         <v>11</v>
       </c>
       <c r="F38" s="3" t="n">
-        <v>16.87217</v>
+        <v>16.52212</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D39" s="0" t="s">
         <v>11</v>
       </c>
       <c r="F39" s="3" t="n">
-        <v>30.16566</v>
+        <v>30.52313</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D40" s="0" t="s">
         <v>11</v>
       </c>
       <c r="F40" s="3" t="n">
-        <v>11.63097</v>
+        <v>11.56137</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D41" s="0" t="s">
         <v>11</v>
       </c>
       <c r="F41" s="3" t="n">
-        <v>12.2157</v>
+        <v>12.04263</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D42" s="0" t="s">
         <v>11</v>
       </c>
       <c r="F42" s="3" t="n">
-        <v>28.89806</v>
+        <v>28.41229</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D43" s="0" t="s">
         <v>11</v>
       </c>
       <c r="F43" s="3" t="n">
-        <v>22.54288</v>
+        <v>22.58972</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D44" s="0" t="s">
         <v>11</v>
       </c>
       <c r="F44" s="3" t="n">
-        <v>18.53438</v>
+        <v>18.74687</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D45" s="0" t="s">
         <v>11</v>
       </c>
       <c r="F45" s="3" t="n">
-        <v>15.80593</v>
+        <v>15.65738</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D46" s="0" t="s">
         <v>11</v>
       </c>
       <c r="F46" s="3" t="n">
-        <v>16.1523</v>
+        <v>16.14464</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D47" s="0" t="s">
         <v>11</v>
       </c>
       <c r="F47" s="3" t="n">
-        <v>27.20958</v>
+        <v>27.11452</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D48" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F48" s="3" t="n">
-        <v>39.63582</v>
+        <v>39.7922</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D49" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F49" s="3" t="n">
-        <v>44.64876</v>
+        <v>44.5305</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D50" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F50" s="3" t="n">
-        <v>45.85753</v>
+        <v>47.5338</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D51" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F51" s="3" t="n">
-        <v>56.89811</v>
+        <v>56.85069</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D52" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F52" s="3" t="n">
-        <v>36.08094</v>
+        <v>35.1868</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D53" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F53" s="3" t="n">
-        <v>14.75153</v>
+        <v>15.14163</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D54" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F54" s="3" t="n">
-        <v>28.1066</v>
+        <v>28.05702</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D55" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F55" s="3" t="n">
-        <v>18.37344</v>
+        <v>17.61852</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D56" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F56" s="3" t="n">
-        <v>31.59228</v>
+        <v>32.21205</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D57" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F57" s="3" t="n">
-        <v>23.10988</v>
+        <v>23.6147</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D58" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F58" s="3" t="n">
-        <v>25.69357</v>
+        <v>24.77918</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D59" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F59" s="3" t="n">
-        <v>16.11494</v>
+        <v>16.23095</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D60" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F60" s="3" t="n">
-        <v>13.3047</v>
+        <v>13.65197</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D61" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F61" s="3" t="n">
-        <v>32.09922</v>
+        <v>33.34411</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D62" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F62" s="3" t="n">
-        <v>14.59954</v>
+        <v>13.7549</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D63" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F63" s="3" t="n">
-        <v>27.67962</v>
+        <v>27.86372</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D64" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F64" s="3" t="n">
-        <v>15.21934</v>
+        <v>15.97539</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D65" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F65" s="3" t="n">
-        <v>19.55846</v>
+        <v>20.57162</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D66" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F66" s="3" t="n">
-        <v>36.77716</v>
+        <v>36.31803</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D67" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F67" s="3" t="n">
-        <v>52.37034</v>
+        <v>51.32454</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D68" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F68" s="3" t="n">
-        <v>12.69521</v>
+        <v>12.5006</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D69" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F69" s="3" t="n">
-        <v>36.99798</v>
+        <v>37.70215</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D70" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F70" s="3" t="n">
-        <v>11.30795</v>
+        <v>10.77857</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D71" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F71" s="3" t="n">
-        <v>15.01415</v>
+        <v>15.41957</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D72" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F72" s="3" t="n">
-        <v>31.43022</v>
+        <v>30.47521</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D73" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F73" s="3" t="n">
-        <v>36.09858</v>
+        <v>37.03853</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D74" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F74" s="3" t="n">
-        <v>38.28403</v>
+        <v>39.31981</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D75" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F75" s="3" t="n">
-        <v>40.91526</v>
+        <v>39.92387</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D76" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F76" s="3" t="n">
-        <v>43.19421</v>
+        <v>41.58475</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D77" s="0" t="s">
         <v>8</v>
       </c>
       <c r="F77" s="3" t="n">
-        <v>57.31435</v>
+        <v>56.77489</v>
       </c>
     </row>
   </sheetData>
